--- a/makurodatabases/中国存贷款基准利率的变动显然不符合泰勒准则.xlsx
+++ b/makurodatabases/中国存贷款基准利率的变动显然不符合泰勒准则.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitwork\makurodatabases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59718265-2AD8-4483-AA26-0B4C322B6B80}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2F80AE-28AF-44A4-BBE2-AF63C97F6C94}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1148,7 +1148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
